--- a/data/statistical/filled_NaN_xlsx/辽宁省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/辽宁省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>41.8519</v>
       </c>
       <c r="E2">
-        <v>1533.344644315541</v>
+        <v>1533.344644285738</v>
       </c>
       <c r="F2">
         <v>5342.64</v>
@@ -609,85 +609,85 @@
         <v>1.34</v>
       </c>
       <c r="H2">
-        <v>55.19618116597303</v>
+        <v>55.19618116601669</v>
       </c>
       <c r="I2">
-        <v>7.209793601548881</v>
+        <v>7.209793600661214</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-40.62556145852432</v>
       </c>
       <c r="K2">
-        <v>37.34062757703941</v>
+        <v>37.34062757715583</v>
       </c>
       <c r="L2">
-        <v>1.946813812766777</v>
+        <v>1.946813812821347</v>
       </c>
       <c r="M2">
-        <v>169.8063563422766</v>
+        <v>169.8063563455362</v>
       </c>
       <c r="N2">
-        <v>148.4392156789545</v>
+        <v>148.4392156854738</v>
       </c>
       <c r="O2">
-        <v>29.31598038366064</v>
+        <v>29.31598039343953</v>
       </c>
       <c r="P2">
-        <v>2142.997198861971</v>
+        <v>1156.943456540857</v>
       </c>
       <c r="Q2">
-        <v>76.14821078663226</v>
+        <v>76.1482107823249</v>
       </c>
       <c r="R2">
-        <v>23.59187305346131</v>
+        <v>23.59187304950319</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-48597.45622634888</v>
       </c>
       <c r="T2">
-        <v>30154.19608402252</v>
+        <v>30154.19608855247</v>
       </c>
       <c r="U2">
-        <v>1.460773111639699</v>
+        <v>0.9184217234844579</v>
       </c>
       <c r="V2">
-        <v>27.23276574141346</v>
+        <v>27.23276574024931</v>
       </c>
       <c r="W2">
-        <v>39.24832967011025</v>
+        <v>39.24832966995018</v>
       </c>
       <c r="X2">
-        <v>28269.30637085438</v>
+        <v>28269.30637288094</v>
       </c>
       <c r="Y2">
-        <v>78.44934615185775</v>
+        <v>78.44934615168313</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-736.3351602554321</v>
       </c>
       <c r="AA2">
-        <v>125.2238298287841</v>
+        <v>625.332168109715</v>
       </c>
       <c r="AB2">
-        <v>2492325.479652405</v>
+        <v>-324141.1840572357</v>
       </c>
       <c r="AC2">
-        <v>1956044.091514587</v>
+        <v>-235001.9760308266</v>
       </c>
       <c r="AD2">
-        <v>891.3286717236042</v>
+        <v>862.9877627938986</v>
       </c>
       <c r="AE2">
-        <v>135145.3928151131</v>
+        <v>-26180.7707798481</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-32403.03402769566</v>
       </c>
       <c r="AG2">
-        <v>26962.40088152885</v>
+        <v>238876.5383653641</v>
       </c>
       <c r="AH2">
-        <v>76068.00415032895</v>
+        <v>39691.18598786784</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>1.07</v>
       </c>
       <c r="H3">
-        <v>56.13682866343152</v>
+        <v>56.13682866346608</v>
       </c>
       <c r="I3">
         <v>6.5</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-13.68363164365292</v>
       </c>
       <c r="K3">
         <v>31.4866706427612</v>
@@ -743,13 +743,13 @@
         <v>73.75</v>
       </c>
       <c r="R3">
-        <v>19.59578430419788</v>
+        <v>19.59578430000693</v>
       </c>
       <c r="S3">
         <v>82079</v>
       </c>
       <c r="T3">
-        <v>36362.29412198067</v>
+        <v>36362.29412722588</v>
       </c>
       <c r="U3">
         <v>1.47</v>
@@ -764,34 +764,34 @@
         <v>31046</v>
       </c>
       <c r="Y3">
-        <v>79.62626098739565</v>
+        <v>79.62626098730834</v>
       </c>
       <c r="Z3">
-        <v>34166.35785388947</v>
+        <v>34166.35782623291</v>
       </c>
       <c r="AA3">
-        <v>126.6553714874169</v>
+        <v>532.6958044320345</v>
       </c>
       <c r="AB3">
-        <v>2197345.007217407</v>
+        <v>-270243.8459489346</v>
       </c>
       <c r="AC3">
-        <v>1727294.444961548</v>
+        <v>-203833.5784826279</v>
       </c>
       <c r="AD3">
-        <v>651.5384618341923</v>
+        <v>594.1101402789354</v>
       </c>
       <c r="AE3">
-        <v>118907.401299715</v>
+        <v>-22032.10308623314</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>-26551.02528274059</v>
       </c>
       <c r="AG3">
-        <v>22801.60192906857</v>
+        <v>200663.2421979904</v>
       </c>
       <c r="AH3">
-        <v>100482.286004283</v>
+        <v>32307.35754140848</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>0.91</v>
       </c>
       <c r="H4">
-        <v>57.07049166655997</v>
+        <v>57.07049166659272</v>
       </c>
       <c r="I4">
         <v>6.5</v>
       </c>
       <c r="J4">
-        <v>15.04960486851633</v>
+        <v>15.04960485873744</v>
       </c>
       <c r="K4">
         <v>28.7769784172662</v>
@@ -847,7 +847,7 @@
         <v>77.62</v>
       </c>
       <c r="R4">
-        <v>16.14470587461255</v>
+        <v>16.14470587018877</v>
       </c>
       <c r="S4">
         <v>99448</v>
@@ -874,28 +874,28 @@
         <v>135878</v>
       </c>
       <c r="AA4">
-        <v>119.3986176148603</v>
+        <v>449.1563438624144</v>
       </c>
       <c r="AB4">
-        <v>1924363.495574951</v>
+        <v>-217083.0011970997</v>
       </c>
       <c r="AC4">
-        <v>1516797.001052856</v>
+        <v>-170666.6715931892</v>
       </c>
       <c r="AD4">
-        <v>476.7382619380951</v>
+        <v>382.3319184184074</v>
       </c>
       <c r="AE4">
-        <v>103691.1326098442</v>
+        <v>-18192.46289849281</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>-21184.01697087288</v>
       </c>
       <c r="AG4">
-        <v>19053.83259737492</v>
+        <v>165770.0110187531</v>
       </c>
       <c r="AH4">
-        <v>114412.245618102</v>
+        <v>34757.62979388128</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>5.6</v>
       </c>
       <c r="J5">
-        <v>45.57414805795997</v>
+        <v>45.57414804957807</v>
       </c>
       <c r="K5">
         <v>24.2637866801868</v>
@@ -972,34 +972,34 @@
         <v>35074</v>
       </c>
       <c r="Y5">
-        <v>81.84315384515503</v>
+        <v>81.84315384518413</v>
       </c>
       <c r="Z5">
         <v>126489</v>
       </c>
       <c r="AA5">
-        <v>127.2236690983301</v>
+        <v>374.7137863822281</v>
       </c>
       <c r="AB5">
-        <v>1673380.944725037</v>
+        <v>-164658.6498022079</v>
       </c>
       <c r="AC5">
-        <v>1324551.759811401</v>
+        <v>-135501.2553620338</v>
       </c>
       <c r="AD5">
-        <v>366.9280720502138</v>
+        <v>227.6530971229076</v>
       </c>
       <c r="AE5">
-        <v>89496.58674454689</v>
+        <v>-14661.85021674633</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>-16302.00909173489</v>
       </c>
       <c r="AG5">
-        <v>15719.09288597107</v>
+        <v>134196.8448257446</v>
       </c>
       <c r="AH5">
-        <v>119571.2601146493</v>
+        <v>26710.82535811616</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>37801</v>
       </c>
       <c r="Y6">
-        <v>82.88313186739106</v>
+        <v>82.88313186747837</v>
       </c>
       <c r="Z6">
         <v>70769</v>
       </c>
       <c r="AA6">
-        <v>109.8173149648985</v>
+        <v>309.3681320026517</v>
       </c>
       <c r="AB6">
-        <v>1444397.354667664</v>
+        <v>-112970.7917633057</v>
       </c>
       <c r="AC6">
-        <v>1150558.721206665</v>
+        <v>-98337.32979011536</v>
       </c>
       <c r="AD6">
-        <v>322.1078921556473</v>
+        <v>130.0736764520407</v>
       </c>
       <c r="AE6">
-        <v>76323.76370382309</v>
+        <v>-11440.26504075527</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>-11905.00164568424</v>
       </c>
       <c r="AG6">
-        <v>12797.38279497623</v>
+        <v>105943.7436189651</v>
       </c>
       <c r="AH6">
-        <v>152924.5187235048</v>
+        <v>42246.03698417914</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>87062</v>
       </c>
       <c r="AA7">
-        <v>119.0875665785354</v>
+        <v>253.1193807311356</v>
       </c>
       <c r="AB7">
-        <v>1237412.725402832</v>
+        <v>-62019.42708134651</v>
       </c>
       <c r="AC7">
-        <v>994817.8852462769</v>
+        <v>-59174.89487791061</v>
       </c>
       <c r="AD7">
-        <v>342.2777222543955</v>
+        <v>89.59365639090538</v>
       </c>
       <c r="AE7">
-        <v>64172.66348838806</v>
+        <v>-8527.707370758057</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>-7992.994632482529</v>
       </c>
       <c r="AG7">
-        <v>10288.70232474804</v>
+        <v>81010.70739555359</v>
       </c>
       <c r="AH7">
-        <v>127725.7353300179</v>
+        <v>25732.9368600766</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>81532</v>
       </c>
       <c r="AA8">
-        <v>110.7782598948044</v>
+        <v>205.9675325527787</v>
       </c>
       <c r="AB8">
-        <v>1052427.056938171</v>
+        <v>-11804.5557551384</v>
       </c>
       <c r="AC8">
-        <v>857329.2519454956</v>
+        <v>-18013.95062398911</v>
       </c>
       <c r="AD8">
-        <v>427.4375623762608</v>
+        <v>106.2130369693041</v>
       </c>
       <c r="AE8">
-        <v>53043.28609752655</v>
+        <v>-5924.177206873894</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>-4565.988052487373</v>
       </c>
       <c r="AG8">
-        <v>8193.051474809647</v>
+        <v>59397.73615932465</v>
       </c>
       <c r="AH8">
-        <v>77948.53883857744</v>
+        <v>45531.65720187005</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>129974</v>
       </c>
       <c r="AA9">
-        <v>113.0346575661207</v>
+        <v>167.9125874750316</v>
       </c>
       <c r="AB9">
-        <v>889440.3492431641</v>
+        <v>37673.82221436501</v>
       </c>
       <c r="AC9">
-        <v>738092.8213043213</v>
+        <v>25145.50297021866</v>
       </c>
       <c r="AD9">
-        <v>577.5874124765396</v>
+        <v>179.9318181276321</v>
       </c>
       <c r="AE9">
-        <v>42935.63153123856</v>
+        <v>-3629.674548745155</v>
       </c>
       <c r="AF9">
-        <v>50.21523796021938</v>
+        <v>-1623.98190510273</v>
       </c>
       <c r="AG9">
-        <v>6510.430245280266</v>
+        <v>41104.82991027832</v>
       </c>
       <c r="AH9">
-        <v>105927.2563313658</v>
+        <v>46627.59890349073</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>190669</v>
       </c>
       <c r="AA10">
-        <v>120.8538698586842</v>
+        <v>138.9545455016196</v>
       </c>
       <c r="AB10">
-        <v>748452.6023635864</v>
+        <v>86415.7068271637</v>
       </c>
       <c r="AC10">
-        <v>637108.5932922363</v>
+        <v>70303.46590614319</v>
       </c>
       <c r="AD10">
-        <v>792.7272725701332</v>
+        <v>310.7499998956919</v>
       </c>
       <c r="AE10">
-        <v>33849.69979000092</v>
+        <v>-1644.199396371841</v>
       </c>
       <c r="AF10">
-        <v>250.5761903822422</v>
+        <v>833.0238093137741</v>
       </c>
       <c r="AG10">
-        <v>5240.838636517525</v>
+        <v>26131.98864459991</v>
       </c>
       <c r="AH10">
-        <v>93224.6244698935</v>
+        <v>33834.77887754794</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>246767</v>
       </c>
       <c r="AA11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11">
-        <v>576975</v>
+        <v>118244</v>
       </c>
       <c r="AC11">
-        <v>545301</v>
+        <v>117252</v>
       </c>
       <c r="AD11">
-        <v>959</v>
+        <v>485</v>
       </c>
       <c r="AE11">
-        <v>46887</v>
+        <v>889</v>
       </c>
       <c r="AF11">
-        <v>471</v>
+        <v>1785</v>
       </c>
       <c r="AG11">
-        <v>1521</v>
+        <v>4006</v>
       </c>
       <c r="AH11">
-        <v>100955</v>
+        <v>26658</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>246667</v>
       </c>
       <c r="AA12">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="AB12">
-        <v>471169</v>
+        <v>154272</v>
       </c>
       <c r="AC12">
-        <v>380210</v>
+        <v>159434</v>
       </c>
       <c r="AD12">
-        <v>1580</v>
+        <v>780</v>
       </c>
       <c r="AE12">
-        <v>226</v>
+        <v>779</v>
       </c>
       <c r="AF12">
-        <v>260</v>
+        <v>5294</v>
       </c>
       <c r="AG12">
-        <v>1702</v>
+        <v>6221</v>
       </c>
       <c r="AH12">
-        <v>106461</v>
+        <v>38010</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>237457</v>
       </c>
       <c r="AA13">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB13">
-        <v>533576</v>
+        <v>216687</v>
       </c>
       <c r="AC13">
-        <v>537321</v>
+        <v>198076</v>
       </c>
       <c r="AD13">
-        <v>1780</v>
+        <v>928</v>
       </c>
       <c r="AE13">
-        <v>3056</v>
+        <v>1047</v>
       </c>
       <c r="AF13">
-        <v>704</v>
+        <v>5911</v>
       </c>
       <c r="AG13">
-        <v>6376</v>
+        <v>7266</v>
       </c>
       <c r="AH13">
-        <v>68445</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>226471</v>
       </c>
       <c r="AA14">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="AB14">
-        <v>533110</v>
+        <v>297671</v>
       </c>
       <c r="AC14">
-        <v>487834</v>
+        <v>293819</v>
       </c>
       <c r="AD14">
-        <v>2050</v>
+        <v>1257</v>
       </c>
       <c r="AE14">
-        <v>5371</v>
+        <v>3807</v>
       </c>
       <c r="AF14">
-        <v>1008</v>
+        <v>6596</v>
       </c>
       <c r="AG14">
-        <v>13253</v>
+        <v>10915</v>
       </c>
       <c r="AH14">
-        <v>294995</v>
+        <v>51153</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>215277</v>
       </c>
       <c r="AA15">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="AB15">
-        <v>391401</v>
+        <v>387330</v>
       </c>
       <c r="AC15">
-        <v>436090</v>
+        <v>343124</v>
       </c>
       <c r="AD15">
-        <v>3018</v>
+        <v>1899</v>
       </c>
       <c r="AE15">
-        <v>244</v>
+        <v>4202</v>
       </c>
       <c r="AF15">
-        <v>160</v>
+        <v>4742</v>
       </c>
       <c r="AG15">
-        <v>3328</v>
+        <v>9468</v>
       </c>
       <c r="AH15">
-        <v>98811</v>
+        <v>48183</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>142438</v>
       </c>
       <c r="AA16">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="AB16">
-        <v>361213</v>
+        <v>409416</v>
       </c>
       <c r="AC16">
-        <v>415614</v>
+        <v>390058</v>
       </c>
       <c r="AD16">
-        <v>3459</v>
+        <v>2603</v>
       </c>
       <c r="AE16">
-        <v>790.2886636257172</v>
+        <v>3729</v>
       </c>
       <c r="AF16">
-        <v>346</v>
+        <v>4341</v>
       </c>
       <c r="AG16">
-        <v>2283</v>
+        <v>7556</v>
       </c>
       <c r="AH16">
-        <v>104665</v>
+        <v>32259</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>614.1318</v>
       </c>
       <c r="K17">
-        <v>11.37342997966334</v>
+        <v>11.37342997943051</v>
       </c>
       <c r="L17">
-        <v>0.8884719165871502</v>
+        <v>0.8884719165434944</v>
       </c>
       <c r="M17">
         <v>14.9081730120243</v>
@@ -2226,28 +2226,28 @@
         <v>144223</v>
       </c>
       <c r="AA17">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="AB17">
-        <v>307730.7</v>
+        <v>430711.9</v>
       </c>
       <c r="AC17">
-        <v>417891.4</v>
+        <v>452909.7</v>
       </c>
       <c r="AD17">
-        <v>4702</v>
+        <v>3106</v>
       </c>
       <c r="AE17">
-        <v>13396</v>
+        <v>3668</v>
       </c>
       <c r="AF17">
-        <v>683</v>
+        <v>4621</v>
       </c>
       <c r="AG17">
-        <v>10780</v>
+        <v>9552</v>
       </c>
       <c r="AH17">
-        <v>96743</v>
+        <v>41351</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2285,7 +2285,7 @@
         <v>12.94610704644583</v>
       </c>
       <c r="L18">
-        <v>0.7237649622547906</v>
+        <v>0.7237649622002209</v>
       </c>
       <c r="M18">
         <v>12.6868085963654</v>
@@ -2312,13 +2312,13 @@
         <v>18909</v>
       </c>
       <c r="U18">
-        <v>1.428847236438841</v>
+        <v>1.82805937773112</v>
       </c>
       <c r="V18">
         <v>95.2</v>
       </c>
       <c r="W18">
-        <v>106.4660439560539</v>
+        <v>106.466043955792</v>
       </c>
       <c r="X18">
         <v>27348</v>
@@ -2330,28 +2330,28 @@
         <v>167978</v>
       </c>
       <c r="AA18">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="AB18">
-        <v>412808.3</v>
+        <v>436338</v>
       </c>
       <c r="AC18">
-        <v>468682.2</v>
+        <v>503492.1</v>
       </c>
       <c r="AD18">
-        <v>4943</v>
+        <v>3373</v>
       </c>
       <c r="AE18">
-        <v>139.5</v>
+        <v>4289.3</v>
       </c>
       <c r="AF18">
-        <v>57.2</v>
+        <v>3762.4</v>
       </c>
       <c r="AG18">
-        <v>10411</v>
+        <v>9452.200000000001</v>
       </c>
       <c r="AH18">
-        <v>163114.2</v>
+        <v>42652.2</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>53</v>
       </c>
       <c r="E19">
-        <v>26826.61964355409</v>
+        <v>26826.61964404583</v>
       </c>
       <c r="F19">
         <v>27355.0319</v>
@@ -2386,10 +2386,10 @@
         <v>626.9</v>
       </c>
       <c r="K19">
-        <v>14.93176206026692</v>
+        <v>14.93176205991767</v>
       </c>
       <c r="L19">
-        <v>0.5472891544377489</v>
+        <v>0.5472891543686274</v>
       </c>
       <c r="M19">
         <v>10.5617346027311</v>
@@ -2416,13 +2416,13 @@
         <v>4391</v>
       </c>
       <c r="U19">
-        <v>1.480808405433404</v>
+        <v>1.588476724276877</v>
       </c>
       <c r="V19">
         <v>96.2</v>
       </c>
       <c r="W19">
-        <v>110.9483461538184</v>
+        <v>110.9483461534983</v>
       </c>
       <c r="X19">
         <v>12367</v>
@@ -2434,28 +2434,28 @@
         <v>157599</v>
       </c>
       <c r="AA19">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="AB19">
-        <v>375000.4</v>
+        <v>340203.1</v>
       </c>
       <c r="AC19">
-        <v>477106</v>
+        <v>497991.7</v>
       </c>
       <c r="AD19">
-        <v>4879</v>
+        <v>3716</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="AF19">
-        <v>26.8</v>
+        <v>985</v>
       </c>
       <c r="AG19">
-        <v>6891.6</v>
+        <v>37343.3</v>
       </c>
       <c r="AH19">
-        <v>54253.7</v>
+        <v>25268.3</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>53.4717</v>
       </c>
       <c r="E20">
-        <v>28132.09275312722</v>
+        <v>28132.09275373816</v>
       </c>
       <c r="F20">
         <v>24849.1264</v>
@@ -2490,10 +2490,10 @@
         <v>698.7884</v>
       </c>
       <c r="K20">
-        <v>17.33039502054453</v>
+        <v>17.3303950203117</v>
       </c>
       <c r="L20">
-        <v>0.3590444931251113</v>
+        <v>0.3590444930559897</v>
       </c>
       <c r="M20">
         <v>8.217572315464571</v>
@@ -2520,13 +2520,13 @@
         <v>507</v>
       </c>
       <c r="U20">
-        <v>1.045051026612027</v>
+        <v>1.870207579092909</v>
       </c>
       <c r="V20">
         <v>98.2</v>
       </c>
       <c r="W20">
-        <v>115.4637301227631</v>
+        <v>115.4637301223411</v>
       </c>
       <c r="X20">
         <v>16318</v>
@@ -2538,28 +2538,28 @@
         <v>158008</v>
       </c>
       <c r="AA20">
-        <v>119</v>
+        <v>321</v>
       </c>
       <c r="AB20">
-        <v>506433</v>
+        <v>585337</v>
       </c>
       <c r="AC20">
-        <v>582739</v>
+        <v>674165</v>
       </c>
       <c r="AD20">
-        <v>6432</v>
+        <v>4464</v>
       </c>
       <c r="AE20">
-        <v>686</v>
+        <v>514</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-1271.9428576231</v>
       </c>
       <c r="AG20">
-        <v>16173</v>
+        <v>46324</v>
       </c>
       <c r="AH20">
-        <v>90796</v>
+        <v>21852</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>51.6497</v>
       </c>
       <c r="E21">
-        <v>29417.30290757865</v>
+        <v>29417.3029083088</v>
       </c>
       <c r="F21">
         <v>28438.4</v>
@@ -2594,25 +2594,25 @@
         <v>772.4978</v>
       </c>
       <c r="K21">
-        <v>20.14200592739508</v>
+        <v>20.14200592727866</v>
       </c>
       <c r="L21">
-        <v>0.1590309783205157</v>
+        <v>0.1590309782441182</v>
       </c>
       <c r="M21">
         <v>5.92160512904638</v>
       </c>
       <c r="N21">
-        <v>167.8549019659404</v>
+        <v>167.8549019589555</v>
       </c>
       <c r="O21">
-        <v>113.6138235279359</v>
+        <v>113.61382351676</v>
       </c>
       <c r="P21">
         <v>2054.1</v>
       </c>
       <c r="Q21">
-        <v>94.30703431135044</v>
+        <v>94.30703431600705</v>
       </c>
       <c r="R21">
         <v>41.7</v>
@@ -2621,49 +2621,49 @@
         <v>960103</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-8484.705897331238</v>
       </c>
       <c r="U21">
-        <v>1.600871529236999</v>
+        <v>1.12616120533623</v>
       </c>
       <c r="V21">
         <v>98.5</v>
       </c>
       <c r="W21">
-        <v>120.0121958628733</v>
+        <v>120.0121958623349</v>
       </c>
       <c r="X21">
-        <v>10528.7965720892</v>
+        <v>10528.79657030106</v>
       </c>
       <c r="Y21">
-        <v>93.00532966984611</v>
+        <v>93.00532966929313</v>
       </c>
       <c r="Z21">
         <v>56559</v>
       </c>
       <c r="AA21">
-        <v>126</v>
+        <v>382</v>
       </c>
       <c r="AB21">
-        <v>736018</v>
+        <v>473430</v>
       </c>
       <c r="AC21">
-        <v>791865</v>
+        <v>675328</v>
       </c>
       <c r="AD21">
-        <v>7473</v>
+        <v>5528</v>
       </c>
       <c r="AE21">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>-4149.941905379295</v>
       </c>
       <c r="AG21">
-        <v>13517</v>
+        <v>105015</v>
       </c>
       <c r="AH21">
-        <v>187496</v>
+        <v>29701</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>50.5</v>
       </c>
       <c r="E22">
-        <v>30682.25010687113</v>
+        <v>30682.2501077354</v>
       </c>
       <c r="F22">
         <v>26652.2411</v>
@@ -2692,82 +2692,82 @@
         <v>73</v>
       </c>
       <c r="I22">
-        <v>5.215758513499168</v>
+        <v>5.215758514517802</v>
       </c>
       <c r="J22">
-        <v>838.5613055229187</v>
+        <v>838.5613055308349</v>
       </c>
       <c r="K22">
         <v>23.36659478105139</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-0.05275139004879748</v>
       </c>
       <c r="M22">
-        <v>4.564935199683532</v>
+        <v>4.564935198286548</v>
       </c>
       <c r="N22">
-        <v>175.5021671885625</v>
+        <v>175.5021671804134</v>
       </c>
       <c r="O22">
-        <v>132.9038544869982</v>
+        <v>132.903854473494</v>
       </c>
       <c r="P22">
-        <v>1585.301648915699</v>
+        <v>1601.746901317806</v>
       </c>
       <c r="Q22">
-        <v>91.96236196858808</v>
+        <v>91.96236197359394</v>
       </c>
       <c r="R22">
-        <v>47.22205882123671</v>
+        <v>47.22205883217975</v>
       </c>
       <c r="S22">
         <v>882929</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-19675.80393862724</v>
       </c>
       <c r="U22">
-        <v>1.119877133866089</v>
+        <v>1.6671725357237</v>
       </c>
       <c r="V22">
-        <v>99.41066047595814</v>
+        <v>99.4106604764238</v>
       </c>
       <c r="W22">
-        <v>124.5937433741346</v>
+        <v>124.5937433734944</v>
       </c>
       <c r="X22">
-        <v>6094.821082472801</v>
+        <v>6094.821080565453</v>
       </c>
       <c r="Y22">
-        <v>93.31497802125523</v>
+        <v>93.31497802057129</v>
       </c>
       <c r="Z22">
-        <v>70394.53427219391</v>
+        <v>70394.53432941437</v>
       </c>
       <c r="AA22">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="AB22">
-        <v>786574.3</v>
+        <v>721131.9</v>
       </c>
       <c r="AC22">
-        <v>871681.5</v>
+        <v>787770.6</v>
       </c>
       <c r="AD22">
-        <v>8675</v>
+        <v>6578</v>
       </c>
       <c r="AE22">
-        <v>313.2</v>
+        <v>-1922.643030047417</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>-7512.94138610363</v>
       </c>
       <c r="AG22">
-        <v>27969.1</v>
+        <v>101087.4</v>
       </c>
       <c r="AH22">
-        <v>142483.2</v>
+        <v>53574.7</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>52.4</v>
       </c>
       <c r="E23">
-        <v>31926.93435103446</v>
+        <v>31926.93435204029</v>
       </c>
       <c r="F23">
-        <v>30403.63019061089</v>
+        <v>30403.63019061834</v>
       </c>
       <c r="G23">
         <v>-5.63</v>
       </c>
       <c r="H23">
-        <v>73.48303480381401</v>
+        <v>73.48303480380491</v>
       </c>
       <c r="I23">
-        <v>5.692573786902358</v>
+        <v>5.692573788022855</v>
       </c>
       <c r="J23">
-        <v>901.3293690946884</v>
+        <v>901.3293691030703</v>
       </c>
       <c r="K23">
         <v>27.00416158128064</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-0.2763026118409471</v>
       </c>
       <c r="M23">
-        <v>4.557081257924438</v>
+        <v>4.557081256993115</v>
       </c>
       <c r="N23">
-        <v>183.8119711102918</v>
+        <v>183.8119711014442</v>
       </c>
       <c r="O23">
-        <v>153.6792156831361</v>
+        <v>153.679215668235</v>
       </c>
       <c r="P23">
-        <v>1774.189176593329</v>
+        <v>2049.833838912418</v>
       </c>
       <c r="Q23">
-        <v>89.28764963615686</v>
+        <v>89.28764964174479</v>
       </c>
       <c r="R23">
-        <v>54.12617646669969</v>
+        <v>54.12617648020387</v>
       </c>
       <c r="S23">
-        <v>1069849.932736397</v>
+        <v>1069849.932731152</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-31782.64914226532</v>
       </c>
       <c r="U23">
-        <v>1.219742601974112</v>
+        <v>1.136786578128032</v>
       </c>
       <c r="V23">
-        <v>99.24306914512999</v>
+        <v>99.24306914582849</v>
       </c>
       <c r="W23">
-        <v>129.2083726565761</v>
+        <v>129.2083726558049</v>
       </c>
       <c r="X23">
-        <v>1310.81914794445</v>
+        <v>1310.819146037102</v>
       </c>
       <c r="Y23">
-        <v>93.57898076824495</v>
+        <v>93.57898076743004</v>
       </c>
       <c r="Z23">
-        <v>39305.33354282379</v>
+        <v>39305.33361053467</v>
       </c>
       <c r="AA23">
-        <v>104.0934497514867</v>
+        <v>590.3181818574667</v>
       </c>
       <c r="AB23">
-        <v>917517.3250427246</v>
+        <v>653039.3113601208</v>
       </c>
       <c r="AC23">
-        <v>985264.0704269409</v>
+        <v>839221.3341069221</v>
       </c>
       <c r="AD23">
-        <v>9503.636364132166</v>
+        <v>7207.431818634272</v>
       </c>
       <c r="AE23">
-        <v>8709.364212036133</v>
+        <v>-3954.525454521179</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-11360.9412996769</v>
       </c>
       <c r="AG23">
-        <v>26321.84318470955</v>
+        <v>133610.965927124</v>
       </c>
       <c r="AH23">
-        <v>168344.6442366711</v>
+        <v>28006.16975647876</v>
       </c>
     </row>
   </sheetData>
